--- a/GitTest.xlsx
+++ b/GitTest.xlsx
@@ -19,9 +19,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>목록을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강감찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이순신</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -45,7 +57,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -55,6 +67,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -86,10 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -373,7 +393,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -385,36 +405,48 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>

--- a/GitTest.xlsx
+++ b/GitTest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>목록을 생성합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>이순신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김이박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이김박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박김이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -57,7 +69,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +85,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -109,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -393,7 +411,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,24 +456,42 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="4">
+        <v>600000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="4">
+        <v>70000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>123</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>80000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>123</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
